--- a/biology/Médecine/Jacques_Benoit_(biologiste)/Jacques_Benoit_(biologiste).xlsx
+++ b/biology/Médecine/Jacques_Benoit_(biologiste)/Jacques_Benoit_(biologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Marie Benoit, né le 26 février 1896 à Nancy et mort à 1er décembre 1982 à Neuilly-sur-Seine, est un médecin et biologiste français. Professeur au Collège de France, spécialiste en endocrinologie animale, il est considéré comme l'un des pionniers de la neuroendocrinologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le petit-fils de Charles Benoit (1815-1898), doyen à la Faculté des Lettres de Nancy. Très tôt intéressé par la recherche, il procède à la photographie de ses préparations histologiques qui attirent l'attention de Pol Bouin, alors professeur d'histologie à la Faculté de médecine de Nancy. Celui-ci l'invite à travailler dans son laboratoire et l'incite à entreprendre des études médicales. Étudiant en médecine, il est le condisciple de Robert Courrier. À l'appel du doyen Weiss, le maître et ses élèves rejoindront la Faculté de médecine de Strasbourg après la Grande Guerre durant laquelle il sera blessé. Engagé volontaire dès août 1914, il est décoré de la Croix du Combattant Volontaire et de la Croix de la Légion d’Honneur à titre militaire.
 En 1925, il est docteur en médecine, préparateur d'histologie puis chef de travaux à la Faculté de médecine. Il est docteur ès sciences en 1929 puis agrégé d'histologie et d'embryologie l'année suivante. En 1938-1939, il est boursier de la Fondation Rockefeller à l'Université de Yale. Entre 1939 et 1946, il occupe la chaire d'histologie et d'embryologie de la Faculté de médecine d'Alger. De retour dans la métropole, il est nommé professeur d'embryologie à la Faculté de médecine de Strasbourg. Entre 1952 et 1966, il est professeur d'histophysiologie au Collège de France.
@@ -543,7 +557,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ses recherches le mènent vers les découvertes de mécanismes physiologiques fondamentaux dans la biologie de la reproduction, la photobiologie et la neuroendocrinologie :
 le déterminisme sexuel hormonal dans la différentiation des gonades, en démontrant l'orientation bisexuelle potentielle des glandes sexuelles des oiseaux (indépendamment du sexe génétique).
@@ -578,7 +594,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il est membre de près de vingt-quatre sociétés savantes étrangères. 
 Membre de la Société de neuro-endocrinologie expérimentale (fondateur, président) et de l'International Society for Cell Biology (président)
@@ -613,7 +631,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sur les cellules interstitielles du testicule du coq domestique : évolution et structure, Paris, Masson, 1922.
 Recherches anatomiques, cytologiques et histophysiologiques sur les voies excrétrices du testicules chez les mammifères, [Thèse de médecine], 1925.
